--- a/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_0_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_0_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3089710.073742709</v>
+        <v>3089710.07374271</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2207.105618414655</v>
+        <v>5325570.885962673</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2207.105618414655</v>
+        <v>5325570.885962673</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80511.42876244329</v>
+        <v>5384348.300671211</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80511.42876244329</v>
+        <v>5384348.300671211</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570334924.377736</v>
+        <v>57309100.00556651</v>
       </c>
     </row>
   </sheetData>
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>381.3089505177366</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>417.0653067263415</v>
       </c>
       <c r="S3" t="n">
-        <v>427.609990530649</v>
+        <v>180.461268734168</v>
       </c>
       <c r="T3" t="n">
         <v>396.904699179778</v>
@@ -983,13 +983,13 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C6" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>347.9376868977026</v>
       </c>
       <c r="E6" t="n">
-        <v>342.6720972219126</v>
+        <v>165.4048965174702</v>
       </c>
       <c r="F6" t="n">
         <v>339.6362423378769</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>17.06530672634153</v>
+        <v>417.0653067263415</v>
       </c>
       <c r="S6" t="n">
-        <v>27.60999053064904</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T6" t="n">
-        <v>259.1461932636827</v>
+        <v>396.904699179778</v>
       </c>
       <c r="U6" t="n">
         <v>400.0723880620735</v>
@@ -1049,7 +1049,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y6" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1220,7 +1220,7 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C9" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>347.9376868977026</v>
@@ -1229,13 +1229,13 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F9" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>17.06530672634153</v>
+        <v>417.0653067263415</v>
       </c>
       <c r="S9" t="n">
-        <v>27.60999053064904</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>159.8823480470774</v>
       </c>
       <c r="U9" t="n">
-        <v>23.6623733586474</v>
+        <v>400.0723880620735</v>
       </c>
       <c r="V9" t="n">
         <v>414.5106671915202</v>
@@ -1463,19 +1463,19 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E12" t="n">
-        <v>342.6720972219126</v>
+        <v>177.4287823419909</v>
       </c>
       <c r="F12" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G12" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>417.0653067263415</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T12" t="n">
-        <v>396.904699179778</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>400.0723880620735</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>414.5106671915202</v>
       </c>
       <c r="W12" t="n">
-        <v>15.64756818701691</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>419.8627394453875</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>87.26375172953334</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>87.26375172953334</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>361.0999124455193</v>
@@ -1700,19 +1700,19 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,25 +1742,25 @@
         <v>417.0653067263415</v>
       </c>
       <c r="S15" t="n">
-        <v>172.1598241743424</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>396.904699179778</v>
       </c>
       <c r="U15" t="n">
-        <v>400.0723880620735</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>414.5106671915202</v>
       </c>
       <c r="W15" t="n">
-        <v>432.3731429098285</v>
+        <v>325.7675598197041</v>
       </c>
       <c r="X15" t="n">
         <v>419.8627394453875</v>
       </c>
       <c r="Y15" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>84.25028199786442</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3.01346973166892</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>87.26375172953334</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1937,16 +1937,16 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E18" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T18" t="n">
         <v>396.904699179778</v>
@@ -1991,10 +1991,10 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W18" t="n">
-        <v>339.2899342507233</v>
+        <v>38.65857242026565</v>
       </c>
       <c r="X18" t="n">
-        <v>419.8627394453875</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>399.3913927661343</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>87.26375172953334</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>84.25028199786442</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.01346973166892</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>417.0653067263415</v>
+        <v>101.6318364666683</v>
       </c>
       <c r="S21" t="n">
-        <v>427.609990530649</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>396.904699179778</v>
@@ -2228,7 +2228,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W21" t="n">
-        <v>176.9229765535219</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X21" t="n">
         <v>419.8627394453875</v>
@@ -2262,22 +2262,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>87.26375172953334</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2408,19 +2408,19 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D24" t="n">
-        <v>51.67141318131694</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E24" t="n">
-        <v>342.6720972219126</v>
+        <v>264.8967247462942</v>
       </c>
       <c r="F24" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G24" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>417.0653067263415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>84.25028199786442</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>3.01346973166892</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>87.26375172953334</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2648,16 +2648,16 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>417.0653067263415</v>
       </c>
       <c r="S27" t="n">
-        <v>427.609990530649</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>396.904699179778</v>
@@ -2702,13 +2702,13 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W27" t="n">
-        <v>176.9229765535215</v>
+        <v>9.702178387113603</v>
       </c>
       <c r="X27" t="n">
         <v>419.8627394453875</v>
       </c>
       <c r="Y27" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>87.26375172953334</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>87.26375172953334</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>267.6362423378769</v>
       </c>
       <c r="G30" t="n">
-        <v>249.9440549683986</v>
+        <v>251.6423660637066</v>
       </c>
       <c r="H30" t="n">
         <v>239.9138419034023</v>
@@ -2927,7 +2927,7 @@
         <v>345.0653067263415</v>
       </c>
       <c r="S30" t="n">
-        <v>355.609990530649</v>
+        <v>353.911679435341</v>
       </c>
       <c r="T30" t="n">
         <v>324.904699179778</v>
@@ -2976,16 +2976,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>51.75968512831497</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>12.25028199786442</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.15172651843488</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>55.42894321323404</v>
       </c>
       <c r="V31" t="n">
-        <v>106.0712666012184</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>310.8582455510187</v>
+        <v>312.5565566463266</v>
       </c>
       <c r="C33" t="n">
         <v>289.0999124455193</v>
@@ -3134,7 +3134,7 @@
         <v>239.9138419034023</v>
       </c>
       <c r="I33" t="n">
-        <v>72.92119721210322</v>
+        <v>71.22288611679522</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3210,16 +3210,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>106.0712666012184</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>51.75968512831497</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>12.25028199786442</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>130.5122714242905</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>15.0683983073784</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>239.9138419034023</v>
       </c>
       <c r="I36" t="n">
-        <v>72.92119721210324</v>
+        <v>72.92119721210322</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,10 +3401,10 @@
         <v>345.0653067263415</v>
       </c>
       <c r="S36" t="n">
-        <v>355.609990530649</v>
+        <v>353.911679435341</v>
       </c>
       <c r="T36" t="n">
-        <v>323.2063880844701</v>
+        <v>324.904699179778</v>
       </c>
       <c r="U36" t="n">
         <v>328.0723880620735</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>141.1391588885039</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>12.25028199786442</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.4103595154527</v>
       </c>
       <c r="T37" t="n">
-        <v>16.69179284102942</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>127.1703102162162</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3605,10 +3605,10 @@
         <v>251.6423660637066</v>
       </c>
       <c r="H39" t="n">
-        <v>239.9138419034023</v>
+        <v>238.2155308080943</v>
       </c>
       <c r="I39" t="n">
-        <v>71.22288611679522</v>
+        <v>72.92119721210322</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3693,16 +3693,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>12.25028199786442</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.15172651843488</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>157.8309517295333</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>55.42894321323404</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>239.9138419034023</v>
       </c>
       <c r="I42" t="n">
-        <v>72.92119721210322</v>
+        <v>71.22288611679517</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>343.3669956310335</v>
+        <v>345.0653067263415</v>
       </c>
       <c r="S42" t="n">
         <v>355.609990530649</v>
@@ -3930,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>12.25028199786442</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.15172651843488</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>55.42894321323404</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.458141890823637</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>154.3728098387097</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>361.0999124455193</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>323.6423660637066</v>
       </c>
       <c r="H45" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>227.794920628445</v>
       </c>
       <c r="S45" t="n">
         <v>427.609990530649</v>
       </c>
       <c r="T45" t="n">
-        <v>270.9013184804062</v>
+        <v>396.904699179778</v>
       </c>
       <c r="U45" t="n">
         <v>400.0723880620735</v>
@@ -4143,34 +4143,34 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>87.26375172953334</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4336,25 +4336,25 @@
         <v>143.6588504066046</v>
       </c>
       <c r="J2" t="n">
-        <v>534.9679634442602</v>
+        <v>864.3122335447629</v>
       </c>
       <c r="K2" t="n">
-        <v>1738.276016978058</v>
+        <v>2067.620287078561</v>
       </c>
       <c r="L2" t="n">
-        <v>1850.247069163946</v>
+        <v>2679.976827279573</v>
       </c>
       <c r="M2" t="n">
-        <v>2361.095897892881</v>
+        <v>3872.190295455752</v>
       </c>
       <c r="N2" t="n">
-        <v>3666.706049325936</v>
+        <v>4092.103658624914</v>
       </c>
       <c r="O2" t="n">
-        <v>5273.552677518746</v>
+        <v>4854.512914955933</v>
       </c>
       <c r="P2" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q2" t="n">
         <v>7131.746396026259</v>
@@ -4391,25 +4391,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0895344601065</v>
+        <v>850.4542977610063</v>
       </c>
       <c r="C3" t="n">
-        <v>604.0895344601065</v>
+        <v>485.706911452401</v>
       </c>
       <c r="D3" t="n">
-        <v>604.0895344601065</v>
+        <v>485.706911452401</v>
       </c>
       <c r="E3" t="n">
-        <v>604.0895344601065</v>
+        <v>485.706911452401</v>
       </c>
       <c r="F3" t="n">
-        <v>604.0895344601065</v>
+        <v>142.64</v>
       </c>
       <c r="G3" t="n">
-        <v>604.0895344601065</v>
+        <v>142.64</v>
       </c>
       <c r="H3" t="n">
-        <v>289.0250476889931</v>
+        <v>142.64</v>
       </c>
       <c r="I3" t="n">
         <v>142.64</v>
@@ -4442,25 +4442,25 @@
         <v>3909.174353251125</v>
       </c>
       <c r="S3" t="n">
-        <v>3477.245069886832</v>
+        <v>3726.890243418632</v>
       </c>
       <c r="T3" t="n">
-        <v>3076.331232331501</v>
+        <v>3325.9764058633</v>
       </c>
       <c r="U3" t="n">
-        <v>2672.217709036478</v>
+        <v>2921.862882568277</v>
       </c>
       <c r="V3" t="n">
-        <v>2253.520065408679</v>
+        <v>2503.165238940479</v>
       </c>
       <c r="W3" t="n">
-        <v>1816.779517014913</v>
+        <v>2066.424690546712</v>
       </c>
       <c r="X3" t="n">
-        <v>1392.67573979735</v>
+        <v>1642.320913329149</v>
       </c>
       <c r="Y3" t="n">
-        <v>989.2500905386283</v>
+        <v>1238.895264070427</v>
       </c>
     </row>
     <row r="4">
@@ -4470,43 +4470,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.0487146404851</v>
+        <v>142.64</v>
       </c>
       <c r="C4" t="n">
-        <v>325.0487146404851</v>
+        <v>142.64</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0487146404851</v>
+        <v>142.64</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0487146404851</v>
+        <v>142.64</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0487146404851</v>
+        <v>142.64</v>
       </c>
       <c r="G4" t="n">
-        <v>325.0487146404851</v>
+        <v>142.64</v>
       </c>
       <c r="H4" t="n">
-        <v>325.0487146404851</v>
+        <v>142.64</v>
       </c>
       <c r="I4" t="n">
-        <v>325.0487146404851</v>
+        <v>302.2193467477057</v>
       </c>
       <c r="J4" t="n">
-        <v>413.1939184076905</v>
+        <v>390.3645505149111</v>
       </c>
       <c r="K4" t="n">
-        <v>413.1939184076905</v>
+        <v>390.3645505149111</v>
       </c>
       <c r="L4" t="n">
-        <v>648.66370915444</v>
+        <v>390.3645505149111</v>
       </c>
       <c r="M4" t="n">
-        <v>648.66370915444</v>
+        <v>543.7885298165506</v>
       </c>
       <c r="N4" t="n">
-        <v>648.66370915444</v>
+        <v>640.6768339861073</v>
       </c>
       <c r="O4" t="n">
         <v>648.66370915444</v>
@@ -4530,16 +4530,16 @@
         <v>142.64</v>
       </c>
       <c r="V4" t="n">
-        <v>325.0487146404851</v>
+        <v>142.64</v>
       </c>
       <c r="W4" t="n">
-        <v>325.0487146404851</v>
+        <v>142.64</v>
       </c>
       <c r="X4" t="n">
-        <v>325.0487146404851</v>
+        <v>142.64</v>
       </c>
       <c r="Y4" t="n">
-        <v>325.0487146404851</v>
+        <v>142.64</v>
       </c>
     </row>
     <row r="5">
@@ -4579,19 +4579,19 @@
         <v>1243.655479385524</v>
       </c>
       <c r="L5" t="n">
-        <v>2763.041514156151</v>
+        <v>1856.012019586537</v>
       </c>
       <c r="M5" t="n">
-        <v>3955.254982332322</v>
+        <v>3048.225487762715</v>
       </c>
       <c r="N5" t="n">
-        <v>4568.475302107086</v>
+        <v>3268.138850931877</v>
       </c>
       <c r="O5" t="n">
-        <v>5521.517846129042</v>
+        <v>4874.985479124695</v>
       </c>
       <c r="P5" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q5" t="n">
         <v>7131.746396026259</v>
@@ -4628,13 +4628,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1548.03993828587</v>
+        <v>1004.234773487929</v>
       </c>
       <c r="C6" t="n">
-        <v>1183.292551977265</v>
+        <v>1004.234773487929</v>
       </c>
       <c r="D6" t="n">
-        <v>831.8403429896864</v>
+        <v>652.7825645003506</v>
       </c>
       <c r="E6" t="n">
         <v>485.706911452401</v>
@@ -4676,28 +4676,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R6" t="n">
-        <v>4313.214757291529</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="S6" t="n">
-        <v>4285.325877967642</v>
+        <v>3477.245069886832</v>
       </c>
       <c r="T6" t="n">
-        <v>4023.562046388164</v>
+        <v>3076.331232331501</v>
       </c>
       <c r="U6" t="n">
-        <v>3619.44852309314</v>
+        <v>2672.217709036478</v>
       </c>
       <c r="V6" t="n">
-        <v>3200.750879465342</v>
+        <v>2253.520065408679</v>
       </c>
       <c r="W6" t="n">
-        <v>2764.010331071576</v>
+        <v>1816.779517014913</v>
       </c>
       <c r="X6" t="n">
-        <v>2339.906553854013</v>
+        <v>1392.67573979735</v>
       </c>
       <c r="Y6" t="n">
-        <v>1936.480904595291</v>
+        <v>1392.67573979735</v>
       </c>
     </row>
     <row r="7">
@@ -4707,43 +4707,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>560.5185053872345</v>
+        <v>142.64</v>
       </c>
       <c r="C7" t="n">
-        <v>560.5185053872345</v>
+        <v>142.64</v>
       </c>
       <c r="D7" t="n">
-        <v>560.5185053872345</v>
+        <v>142.64</v>
       </c>
       <c r="E7" t="n">
-        <v>560.5185053872345</v>
+        <v>142.64</v>
       </c>
       <c r="F7" t="n">
-        <v>560.5185053872345</v>
+        <v>142.64</v>
       </c>
       <c r="G7" t="n">
-        <v>560.5185053872345</v>
+        <v>142.64</v>
       </c>
       <c r="H7" t="n">
-        <v>560.5185053872345</v>
+        <v>142.64</v>
       </c>
       <c r="I7" t="n">
-        <v>560.5185053872345</v>
+        <v>142.64</v>
       </c>
       <c r="J7" t="n">
-        <v>648.66370915444</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="K7" t="n">
-        <v>648.66370915444</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="L7" t="n">
-        <v>648.66370915444</v>
+        <v>390.3645505149111</v>
       </c>
       <c r="M7" t="n">
-        <v>648.66370915444</v>
+        <v>543.7885298165506</v>
       </c>
       <c r="N7" t="n">
-        <v>648.66370915444</v>
+        <v>640.6768339861073</v>
       </c>
       <c r="O7" t="n">
         <v>648.66370915444</v>
@@ -4764,19 +4764,19 @@
         <v>142.64</v>
       </c>
       <c r="U7" t="n">
-        <v>276.870249461265</v>
+        <v>142.64</v>
       </c>
       <c r="V7" t="n">
-        <v>276.870249461265</v>
+        <v>142.64</v>
       </c>
       <c r="W7" t="n">
-        <v>448.7611677209424</v>
+        <v>142.64</v>
       </c>
       <c r="X7" t="n">
-        <v>448.7611677209424</v>
+        <v>142.64</v>
       </c>
       <c r="Y7" t="n">
-        <v>448.7611677209424</v>
+        <v>142.64</v>
       </c>
     </row>
     <row r="8">
@@ -4810,25 +4810,25 @@
         <v>142.64</v>
       </c>
       <c r="J8" t="n">
-        <v>437.2916939178631</v>
+        <v>142.64</v>
       </c>
       <c r="K8" t="n">
-        <v>1146.998060265732</v>
+        <v>1345.948053533798</v>
       </c>
       <c r="L8" t="n">
-        <v>2054.027554835353</v>
+        <v>2865.334088304432</v>
       </c>
       <c r="M8" t="n">
-        <v>3246.241023011525</v>
+        <v>2919.102557440605</v>
       </c>
       <c r="N8" t="n">
-        <v>3859.461342786288</v>
+        <v>4224.712708873667</v>
       </c>
       <c r="O8" t="n">
-        <v>5466.307970979098</v>
+        <v>5831.559337066485</v>
       </c>
       <c r="P8" t="n">
-        <v>6327.895934886205</v>
+        <v>6693.147300973592</v>
       </c>
       <c r="Q8" t="n">
         <v>7131.746396026259</v>
@@ -4865,22 +4865,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2190.015905929415</v>
+        <v>840.225640524864</v>
       </c>
       <c r="C9" t="n">
-        <v>1825.268519620809</v>
+        <v>840.225640524864</v>
       </c>
       <c r="D9" t="n">
-        <v>1473.816310633231</v>
+        <v>488.7734315372855</v>
       </c>
       <c r="E9" t="n">
-        <v>1127.682879095945</v>
+        <v>142.64</v>
       </c>
       <c r="F9" t="n">
-        <v>784.6159676435443</v>
+        <v>142.64</v>
       </c>
       <c r="G9" t="n">
-        <v>457.7044867711135</v>
+        <v>142.64</v>
       </c>
       <c r="H9" t="n">
         <v>142.64</v>
@@ -4913,28 +4913,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R9" t="n">
-        <v>4313.214757291529</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="S9" t="n">
-        <v>4285.325877967642</v>
+        <v>3477.245069886832</v>
       </c>
       <c r="T9" t="n">
-        <v>4285.325877967642</v>
+        <v>3315.747748627158</v>
       </c>
       <c r="U9" t="n">
-        <v>4261.424490736685</v>
+        <v>2911.634225332135</v>
       </c>
       <c r="V9" t="n">
-        <v>3842.726847108886</v>
+        <v>2492.936581704336</v>
       </c>
       <c r="W9" t="n">
-        <v>3405.98629871512</v>
+        <v>2056.19603331057</v>
       </c>
       <c r="X9" t="n">
-        <v>2981.882521497557</v>
+        <v>1632.092256093007</v>
       </c>
       <c r="Y9" t="n">
-        <v>2578.456872238835</v>
+        <v>1228.666606834285</v>
       </c>
     </row>
     <row r="10">
@@ -4950,37 +4950,37 @@
         <v>142.64</v>
       </c>
       <c r="D10" t="n">
-        <v>255.9591441250001</v>
+        <v>142.64</v>
       </c>
       <c r="E10" t="n">
-        <v>255.9591441250001</v>
+        <v>142.64</v>
       </c>
       <c r="F10" t="n">
-        <v>255.9591441250001</v>
+        <v>142.64</v>
       </c>
       <c r="G10" t="n">
-        <v>411.1063247659837</v>
+        <v>142.64</v>
       </c>
       <c r="H10" t="n">
-        <v>411.1063247659837</v>
+        <v>142.64</v>
       </c>
       <c r="I10" t="n">
-        <v>411.1063247659837</v>
+        <v>142.64</v>
       </c>
       <c r="J10" t="n">
-        <v>499.2515285331891</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="K10" t="n">
-        <v>499.2515285331891</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="L10" t="n">
-        <v>499.2515285331891</v>
+        <v>390.3645505149111</v>
       </c>
       <c r="M10" t="n">
-        <v>648.66370915444</v>
+        <v>543.7885298165506</v>
       </c>
       <c r="N10" t="n">
-        <v>648.66370915444</v>
+        <v>640.6768339861073</v>
       </c>
       <c r="O10" t="n">
         <v>648.66370915444</v>
@@ -5047,22 +5047,22 @@
         <v>142.64</v>
       </c>
       <c r="J11" t="n">
-        <v>437.2916939178631</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="K11" t="n">
-        <v>1640.599747451661</v>
+        <v>1533.956483193743</v>
       </c>
       <c r="L11" t="n">
-        <v>3159.985782222288</v>
+        <v>3053.342517964378</v>
       </c>
       <c r="M11" t="n">
-        <v>4265.296473269765</v>
+        <v>4245.555986140556</v>
       </c>
       <c r="N11" t="n">
-        <v>4878.516793044528</v>
+        <v>5551.166137573618</v>
       </c>
       <c r="O11" t="n">
-        <v>5831.559337066485</v>
+        <v>6135.424830866128</v>
       </c>
       <c r="P11" t="n">
         <v>6693.147300973592</v>
@@ -5102,25 +5102,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1874.951419158301</v>
+        <v>1842.577033473329</v>
       </c>
       <c r="C12" t="n">
-        <v>1510.204032849696</v>
+        <v>1477.829647164723</v>
       </c>
       <c r="D12" t="n">
-        <v>1158.751823862117</v>
+        <v>1126.377438177145</v>
       </c>
       <c r="E12" t="n">
-        <v>812.6183923248318</v>
+        <v>947.1564459125075</v>
       </c>
       <c r="F12" t="n">
-        <v>469.5514808724309</v>
+        <v>604.0895344601065</v>
       </c>
       <c r="G12" t="n">
-        <v>142.64</v>
+        <v>604.0895344601065</v>
       </c>
       <c r="H12" t="n">
-        <v>142.64</v>
+        <v>289.0250476889931</v>
       </c>
       <c r="I12" t="n">
         <v>142.64</v>
@@ -5150,28 +5150,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R12" t="n">
-        <v>4330.45244085349</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="S12" t="n">
-        <v>4330.45244085349</v>
+        <v>3477.245069886832</v>
       </c>
       <c r="T12" t="n">
-        <v>3929.538603298159</v>
+        <v>3477.245069886832</v>
       </c>
       <c r="U12" t="n">
-        <v>3525.425080003135</v>
+        <v>3477.245069886832</v>
       </c>
       <c r="V12" t="n">
-        <v>3106.727436375337</v>
+        <v>3058.547426259034</v>
       </c>
       <c r="W12" t="n">
-        <v>3090.921811944007</v>
+        <v>3058.547426259034</v>
       </c>
       <c r="X12" t="n">
-        <v>2666.818034726443</v>
+        <v>2634.443649041471</v>
       </c>
       <c r="Y12" t="n">
-        <v>2263.392385467722</v>
+        <v>2231.017999782749</v>
       </c>
     </row>
     <row r="13">
@@ -5211,34 +5211,34 @@
         <v>230.7852037672054</v>
       </c>
       <c r="L13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="M13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="N13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="O13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="P13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="R13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="S13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="T13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="U13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="V13" t="n">
         <v>142.64</v>
@@ -5281,28 +5281,28 @@
         <v>142.64</v>
       </c>
       <c r="I14" t="n">
-        <v>143.6588504066046</v>
+        <v>142.64</v>
       </c>
       <c r="J14" t="n">
-        <v>534.9679634442602</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="K14" t="n">
-        <v>1738.276016978058</v>
+        <v>1677.054950222456</v>
       </c>
       <c r="L14" t="n">
-        <v>2777.401222430278</v>
+        <v>3196.440984993091</v>
       </c>
       <c r="M14" t="n">
-        <v>3288.250051159213</v>
+        <v>3707.289813722026</v>
       </c>
       <c r="N14" t="n">
-        <v>3901.470370933976</v>
+        <v>4320.510133496789</v>
       </c>
       <c r="O14" t="n">
-        <v>4854.512914955933</v>
+        <v>5273.552677518746</v>
       </c>
       <c r="P14" t="n">
-        <v>6274.107538410778</v>
+        <v>6693.147300973592</v>
       </c>
       <c r="Q14" t="n">
         <v>7131.746396026259</v>
@@ -5339,25 +5339,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>858.8395952961839</v>
+        <v>2336.400953618408</v>
       </c>
       <c r="C15" t="n">
-        <v>494.0922089875785</v>
+        <v>1971.653567309802</v>
       </c>
       <c r="D15" t="n">
-        <v>142.64</v>
+        <v>1620.201358322224</v>
       </c>
       <c r="E15" t="n">
-        <v>142.64</v>
+        <v>1274.067926784938</v>
       </c>
       <c r="F15" t="n">
-        <v>142.64</v>
+        <v>931.0010153325375</v>
       </c>
       <c r="G15" t="n">
-        <v>142.64</v>
+        <v>604.0895344601065</v>
       </c>
       <c r="H15" t="n">
-        <v>142.64</v>
+        <v>289.0250476889931</v>
       </c>
       <c r="I15" t="n">
         <v>142.64</v>
@@ -5390,25 +5390,25 @@
         <v>3909.174353251125</v>
       </c>
       <c r="S15" t="n">
-        <v>3735.275540953809</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="T15" t="n">
-        <v>3334.361703398478</v>
+        <v>3508.260515695793</v>
       </c>
       <c r="U15" t="n">
-        <v>2930.248180103454</v>
+        <v>3508.260515695793</v>
       </c>
       <c r="V15" t="n">
-        <v>2511.550536475656</v>
+        <v>3089.562872067995</v>
       </c>
       <c r="W15" t="n">
-        <v>2074.80998808189</v>
+        <v>2760.504730835971</v>
       </c>
       <c r="X15" t="n">
-        <v>1650.706210864326</v>
+        <v>2336.400953618408</v>
       </c>
       <c r="Y15" t="n">
-        <v>1247.280561605605</v>
+        <v>2336.400953618408</v>
       </c>
     </row>
     <row r="16">
@@ -5445,40 +5445,40 @@
         <v>230.7852037672054</v>
       </c>
       <c r="K16" t="n">
-        <v>230.7852037672054</v>
+        <v>145.6839088198676</v>
       </c>
       <c r="L16" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="M16" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="N16" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="O16" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="P16" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Q16" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="R16" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="S16" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="T16" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="U16" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="V16" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="W16" t="n">
         <v>142.64</v>
@@ -5524,22 +5524,22 @@
         <v>533.9491130376557</v>
       </c>
       <c r="K17" t="n">
-        <v>1243.655479385524</v>
+        <v>1737.257166571454</v>
       </c>
       <c r="L17" t="n">
-        <v>2763.041514156151</v>
+        <v>2799.694992945533</v>
       </c>
       <c r="M17" t="n">
-        <v>3846.256710706951</v>
+        <v>2799.694992945533</v>
       </c>
       <c r="N17" t="n">
-        <v>4459.477030481714</v>
+        <v>4105.305144378595</v>
       </c>
       <c r="O17" t="n">
-        <v>5412.519574503671</v>
+        <v>5712.151772571413</v>
       </c>
       <c r="P17" t="n">
-        <v>6274.107538410778</v>
+        <v>7131.746396026259</v>
       </c>
       <c r="Q17" t="n">
         <v>7131.746396026259</v>
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1548.03993828587</v>
+        <v>1843.882474392129</v>
       </c>
       <c r="C18" t="n">
-        <v>1183.292551977265</v>
+        <v>1479.135088083524</v>
       </c>
       <c r="D18" t="n">
-        <v>831.8403429896864</v>
+        <v>1127.682879095945</v>
       </c>
       <c r="E18" t="n">
-        <v>485.706911452401</v>
+        <v>1127.682879095945</v>
       </c>
       <c r="F18" t="n">
-        <v>142.64</v>
+        <v>784.6159676435443</v>
       </c>
       <c r="G18" t="n">
-        <v>142.64</v>
+        <v>457.7044867711135</v>
       </c>
       <c r="H18" t="n">
         <v>142.64</v>
@@ -5627,25 +5627,25 @@
         <v>4330.45244085349</v>
       </c>
       <c r="S18" t="n">
-        <v>4330.45244085349</v>
+        <v>3898.523157489198</v>
       </c>
       <c r="T18" t="n">
-        <v>3929.538603298159</v>
+        <v>3497.609319933867</v>
       </c>
       <c r="U18" t="n">
-        <v>3525.425080003135</v>
+        <v>3093.495796638843</v>
       </c>
       <c r="V18" t="n">
-        <v>3106.727436375337</v>
+        <v>2674.798153011045</v>
       </c>
       <c r="W18" t="n">
-        <v>2764.010331071576</v>
+        <v>2635.749089960271</v>
       </c>
       <c r="X18" t="n">
-        <v>2339.906553854013</v>
+        <v>2635.749089960271</v>
       </c>
       <c r="Y18" t="n">
-        <v>1936.480904595291</v>
+        <v>2232.32344070155</v>
       </c>
     </row>
     <row r="19">
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="C19" t="n">
         <v>142.64</v>
@@ -5682,49 +5682,49 @@
         <v>230.7852037672054</v>
       </c>
       <c r="K19" t="n">
-        <v>230.7852037672054</v>
+        <v>145.6839088198676</v>
       </c>
       <c r="L19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="M19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="N19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="O19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="P19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Q19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="R19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="S19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="T19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="U19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="V19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="W19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="X19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Y19" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
     </row>
     <row r="20">
@@ -5761,22 +5761,22 @@
         <v>533.9491130376557</v>
       </c>
       <c r="K20" t="n">
-        <v>1243.655479385524</v>
+        <v>1737.257166571454</v>
       </c>
       <c r="L20" t="n">
-        <v>2654.04324253078</v>
+        <v>3256.643201342088</v>
       </c>
       <c r="M20" t="n">
-        <v>3846.256710706951</v>
+        <v>4448.856669518267</v>
       </c>
       <c r="N20" t="n">
-        <v>4459.477030481714</v>
+        <v>5754.466820951329</v>
       </c>
       <c r="O20" t="n">
-        <v>5412.519574503671</v>
+        <v>6135.424830866128</v>
       </c>
       <c r="P20" t="n">
-        <v>6274.107538410778</v>
+        <v>6693.147300973592</v>
       </c>
       <c r="Q20" t="n">
         <v>7131.746396026259</v>
@@ -5813,25 +5813,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>858.8395952961839</v>
+        <v>1351.358074522462</v>
       </c>
       <c r="C21" t="n">
-        <v>494.0922089875785</v>
+        <v>986.610688213857</v>
       </c>
       <c r="D21" t="n">
-        <v>142.64</v>
+        <v>635.1584792262786</v>
       </c>
       <c r="E21" t="n">
-        <v>142.64</v>
+        <v>289.0250476889931</v>
       </c>
       <c r="F21" t="n">
-        <v>142.64</v>
+        <v>289.0250476889931</v>
       </c>
       <c r="G21" t="n">
-        <v>142.64</v>
+        <v>289.0250476889931</v>
       </c>
       <c r="H21" t="n">
-        <v>142.64</v>
+        <v>289.0250476889931</v>
       </c>
       <c r="I21" t="n">
         <v>142.64</v>
@@ -5861,28 +5861,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R21" t="n">
-        <v>3909.174353251125</v>
+        <v>4227.794020180088</v>
       </c>
       <c r="S21" t="n">
-        <v>3477.245069886832</v>
+        <v>4227.794020180088</v>
       </c>
       <c r="T21" t="n">
-        <v>3076.331232331501</v>
+        <v>3826.880182624756</v>
       </c>
       <c r="U21" t="n">
-        <v>2672.217709036478</v>
+        <v>3422.766659329733</v>
       </c>
       <c r="V21" t="n">
-        <v>2253.520065408679</v>
+        <v>3004.069015701934</v>
       </c>
       <c r="W21" t="n">
-        <v>2074.80998808189</v>
+        <v>2567.328467308168</v>
       </c>
       <c r="X21" t="n">
-        <v>1650.706210864326</v>
+        <v>2143.224690090605</v>
       </c>
       <c r="Y21" t="n">
-        <v>1247.280561605605</v>
+        <v>1739.799040831883</v>
       </c>
     </row>
     <row r="22">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="C22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="D22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="E22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="F22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="G22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="H22" t="n">
         <v>142.64</v>
@@ -5925,43 +5925,43 @@
         <v>230.7852037672054</v>
       </c>
       <c r="M22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="N22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="O22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="P22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="R22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="S22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="T22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="U22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="V22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="W22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="X22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Y22" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
     </row>
     <row r="23">
@@ -5995,19 +5995,19 @@
         <v>142.64</v>
       </c>
       <c r="J23" t="n">
-        <v>863.2933831381582</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="K23" t="n">
-        <v>2066.601436671956</v>
+        <v>1027.550800223585</v>
       </c>
       <c r="L23" t="n">
-        <v>3100.643560369976</v>
+        <v>2546.93683499422</v>
       </c>
       <c r="M23" t="n">
-        <v>3611.492389098911</v>
+        <v>3739.150303170399</v>
       </c>
       <c r="N23" t="n">
-        <v>4224.712708873674</v>
+        <v>4352.370622945162</v>
       </c>
       <c r="O23" t="n">
         <v>5831.559337066485</v>
@@ -6050,22 +6050,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1890.757043589631</v>
+        <v>1469.478955987266</v>
       </c>
       <c r="C24" t="n">
-        <v>1526.009657281026</v>
+        <v>1104.73156967866</v>
       </c>
       <c r="D24" t="n">
-        <v>1473.816310633231</v>
+        <v>753.279360691082</v>
       </c>
       <c r="E24" t="n">
-        <v>1127.682879095945</v>
+        <v>485.706911452401</v>
       </c>
       <c r="F24" t="n">
-        <v>784.6159676435443</v>
+        <v>142.64</v>
       </c>
       <c r="G24" t="n">
-        <v>457.7044867711135</v>
+        <v>142.64</v>
       </c>
       <c r="H24" t="n">
         <v>142.64</v>
@@ -6098,28 +6098,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R24" t="n">
-        <v>4330.45244085349</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="S24" t="n">
-        <v>4330.45244085349</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="T24" t="n">
-        <v>3929.538603298159</v>
+        <v>3508.260515695793</v>
       </c>
       <c r="U24" t="n">
-        <v>3525.425080003135</v>
+        <v>3104.14699240077</v>
       </c>
       <c r="V24" t="n">
-        <v>3106.727436375337</v>
+        <v>2685.449348772971</v>
       </c>
       <c r="W24" t="n">
-        <v>3106.727436375337</v>
+        <v>2685.449348772971</v>
       </c>
       <c r="X24" t="n">
-        <v>2682.623659157774</v>
+        <v>2261.345571555408</v>
       </c>
       <c r="Y24" t="n">
-        <v>2279.198009899052</v>
+        <v>1857.919922296687</v>
       </c>
     </row>
     <row r="25">
@@ -6156,40 +6156,40 @@
         <v>230.7852037672054</v>
       </c>
       <c r="K25" t="n">
-        <v>230.7852037672054</v>
+        <v>145.6839088198676</v>
       </c>
       <c r="L25" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="M25" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="N25" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="O25" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="P25" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="R25" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="S25" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="T25" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="U25" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="V25" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="W25" t="n">
         <v>142.64</v>
@@ -6232,25 +6232,25 @@
         <v>142.64</v>
       </c>
       <c r="J26" t="n">
-        <v>863.2933831381582</v>
+        <v>142.64</v>
       </c>
       <c r="K26" t="n">
-        <v>2066.601436671956</v>
+        <v>852.3463663478684</v>
       </c>
       <c r="L26" t="n">
-        <v>3062.057812882538</v>
+        <v>2371.732401118503</v>
       </c>
       <c r="M26" t="n">
-        <v>3572.906641611473</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="N26" t="n">
-        <v>4878.516793044528</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O26" t="n">
-        <v>5831.559337066485</v>
+        <v>4854.512914955933</v>
       </c>
       <c r="P26" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q26" t="n">
         <v>7131.746396026259</v>
@@ -6287,76 +6287,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>858.8395952961696</v>
+        <v>1863.104425056984</v>
       </c>
       <c r="C27" t="n">
-        <v>494.0922089875642</v>
+        <v>1498.357038748378</v>
       </c>
       <c r="D27" t="n">
-        <v>142.6399999999858</v>
+        <v>1146.9048297608</v>
       </c>
       <c r="E27" t="n">
-        <v>142.6399999999858</v>
+        <v>800.7713982235143</v>
       </c>
       <c r="F27" t="n">
-        <v>142.6399999999858</v>
+        <v>457.7044867711135</v>
       </c>
       <c r="G27" t="n">
-        <v>142.6399999999858</v>
+        <v>457.7044867711135</v>
       </c>
       <c r="H27" t="n">
-        <v>142.6399999999858</v>
+        <v>142.64</v>
       </c>
       <c r="I27" t="n">
-        <v>142.6399999999858</v>
+        <v>142.64</v>
       </c>
       <c r="J27" t="n">
-        <v>462.7517112130206</v>
+        <v>462.7517112130348</v>
       </c>
       <c r="K27" t="n">
-        <v>987.2049919300456</v>
+        <v>987.2049919300598</v>
       </c>
       <c r="L27" t="n">
-        <v>1709.354521921472</v>
+        <v>1709.354521921486</v>
       </c>
       <c r="M27" t="n">
-        <v>2321.496313664331</v>
+        <v>2321.496313664346</v>
       </c>
       <c r="N27" t="n">
-        <v>2994.761124215296</v>
+        <v>2994.76112421531</v>
       </c>
       <c r="O27" t="n">
-        <v>3727.783922597128</v>
+        <v>3727.783922597142</v>
       </c>
       <c r="P27" t="n">
-        <v>4236.776045368521</v>
+        <v>4236.776045368536</v>
       </c>
       <c r="Q27" t="n">
-        <v>4330.452440853475</v>
+        <v>4330.45244085349</v>
       </c>
       <c r="R27" t="n">
-        <v>3909.17435325111</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="S27" t="n">
-        <v>3477.245069886818</v>
+        <v>3909.174353251125</v>
       </c>
       <c r="T27" t="n">
-        <v>3076.331232331487</v>
+        <v>3508.260515695793</v>
       </c>
       <c r="U27" t="n">
-        <v>2672.217709036463</v>
+        <v>3104.14699240077</v>
       </c>
       <c r="V27" t="n">
-        <v>2253.520065408665</v>
+        <v>2685.449348772971</v>
       </c>
       <c r="W27" t="n">
-        <v>2074.809988081875</v>
+        <v>2675.649168583968</v>
       </c>
       <c r="X27" t="n">
-        <v>1650.706210864312</v>
+        <v>2251.545391366405</v>
       </c>
       <c r="Y27" t="n">
-        <v>1247.28056160559</v>
+        <v>2251.545391366405</v>
       </c>
     </row>
     <row r="28">
@@ -6396,34 +6396,34 @@
         <v>230.7852037672054</v>
       </c>
       <c r="L28" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="M28" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="N28" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="O28" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="P28" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Q28" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="R28" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="S28" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="T28" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="U28" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="V28" t="n">
         <v>142.64</v>
@@ -6466,25 +6466,25 @@
         <v>142.64</v>
       </c>
       <c r="I29" t="n">
-        <v>142.64</v>
+        <v>143.6588504066046</v>
       </c>
       <c r="J29" t="n">
-        <v>142.64</v>
+        <v>864.3122335447629</v>
       </c>
       <c r="K29" t="n">
-        <v>852.3463663478684</v>
+        <v>2067.620287078561</v>
       </c>
       <c r="L29" t="n">
-        <v>1961.653410872488</v>
+        <v>3587.006321849196</v>
       </c>
       <c r="M29" t="n">
-        <v>3153.866879048659</v>
+        <v>3729.551454930545</v>
       </c>
       <c r="N29" t="n">
-        <v>4459.477030481714</v>
+        <v>5035.161606363607</v>
       </c>
       <c r="O29" t="n">
-        <v>5412.519574503671</v>
+        <v>5619.420299656118</v>
       </c>
       <c r="P29" t="n">
         <v>6274.107538410778</v>
@@ -6524,19 +6524,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1825.594578774662</v>
+        <v>1827.310044527499</v>
       </c>
       <c r="C30" t="n">
-        <v>1533.57446519333</v>
+        <v>1535.289930946166</v>
       </c>
       <c r="D30" t="n">
-        <v>1254.849528933024</v>
+        <v>1256.56499468586</v>
       </c>
       <c r="E30" t="n">
-        <v>981.4433701230112</v>
+        <v>983.1588358758474</v>
       </c>
       <c r="F30" t="n">
-        <v>711.1037313978829</v>
+        <v>712.8191971507192</v>
       </c>
       <c r="G30" t="n">
         <v>458.6349890055611</v>
@@ -6575,25 +6575,25 @@
         <v>4552.141625978397</v>
       </c>
       <c r="S30" t="n">
-        <v>4192.939615341378</v>
+        <v>4194.655081094214</v>
       </c>
       <c r="T30" t="n">
-        <v>3864.75305051332</v>
+        <v>3866.468516266156</v>
       </c>
       <c r="U30" t="n">
-        <v>3533.366799945568</v>
+        <v>3535.082265698405</v>
       </c>
       <c r="V30" t="n">
-        <v>3187.396429045043</v>
+        <v>3189.111894797879</v>
       </c>
       <c r="W30" t="n">
-        <v>2823.38315337855</v>
+        <v>2825.098619131386</v>
       </c>
       <c r="X30" t="n">
-        <v>2472.006648888259</v>
+        <v>2473.722114641096</v>
       </c>
       <c r="Y30" t="n">
-        <v>2141.30827235681</v>
+        <v>2143.023738109647</v>
       </c>
     </row>
     <row r="31">
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>194.9225102306212</v>
+        <v>142.64</v>
       </c>
       <c r="C31" t="n">
-        <v>194.9225102306212</v>
+        <v>142.64</v>
       </c>
       <c r="D31" t="n">
-        <v>194.9225102306212</v>
+        <v>142.64</v>
       </c>
       <c r="E31" t="n">
-        <v>194.9225102306212</v>
+        <v>142.64</v>
       </c>
       <c r="F31" t="n">
-        <v>194.9225102306212</v>
+        <v>142.64</v>
       </c>
       <c r="G31" t="n">
-        <v>194.9225102306212</v>
+        <v>142.64</v>
       </c>
       <c r="H31" t="n">
-        <v>194.9225102306212</v>
+        <v>142.64</v>
       </c>
       <c r="I31" t="n">
         <v>142.64</v>
@@ -6630,49 +6630,49 @@
         <v>302.0652037672054</v>
       </c>
       <c r="K31" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="L31" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="M31" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="N31" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="O31" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="P31" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="Q31" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="R31" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="S31" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="T31" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="U31" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9225102306212</v>
+        <v>142.64</v>
       </c>
       <c r="W31" t="n">
-        <v>194.9225102306212</v>
+        <v>142.64</v>
       </c>
       <c r="X31" t="n">
-        <v>194.9225102306212</v>
+        <v>142.64</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.9225102306212</v>
+        <v>142.64</v>
       </c>
     </row>
     <row r="32">
@@ -6703,28 +6703,28 @@
         <v>142.64</v>
       </c>
       <c r="I32" t="n">
-        <v>142.64</v>
+        <v>143.6588504066046</v>
       </c>
       <c r="J32" t="n">
-        <v>533.9491130376557</v>
+        <v>438.3105443244677</v>
       </c>
       <c r="K32" t="n">
-        <v>1243.655479385524</v>
+        <v>1641.618597858266</v>
       </c>
       <c r="L32" t="n">
-        <v>2419.27892092274</v>
+        <v>2858.127390318082</v>
       </c>
       <c r="M32" t="n">
-        <v>3611.492389098911</v>
+        <v>4050.340858494261</v>
       </c>
       <c r="N32" t="n">
-        <v>4224.712708873674</v>
+        <v>4270.254221663423</v>
       </c>
       <c r="O32" t="n">
-        <v>5831.559337066485</v>
+        <v>4854.512914955933</v>
       </c>
       <c r="P32" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q32" t="n">
         <v>7131.746396026259</v>
@@ -6761,25 +6761,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1827.310044527499</v>
+        <v>1825.594578774662</v>
       </c>
       <c r="C33" t="n">
-        <v>1535.289930946166</v>
+        <v>1533.57446519333</v>
       </c>
       <c r="D33" t="n">
-        <v>1256.56499468586</v>
+        <v>1254.849528933024</v>
       </c>
       <c r="E33" t="n">
-        <v>983.1588358758474</v>
+        <v>981.4433701230112</v>
       </c>
       <c r="F33" t="n">
-        <v>712.8191971507192</v>
+        <v>711.1037313978829</v>
       </c>
       <c r="G33" t="n">
-        <v>458.6349890055611</v>
+        <v>456.9195232527248</v>
       </c>
       <c r="H33" t="n">
-        <v>216.2977749617204</v>
+        <v>214.5823092088841</v>
       </c>
       <c r="I33" t="n">
         <v>142.64</v>
@@ -6840,25 +6840,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="C34" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="D34" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="E34" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="F34" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="G34" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="H34" t="n">
-        <v>194.9225102306212</v>
+        <v>142.64</v>
       </c>
       <c r="I34" t="n">
         <v>142.64</v>
@@ -6867,49 +6867,49 @@
         <v>302.0652037672054</v>
       </c>
       <c r="K34" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="L34" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="M34" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="N34" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="O34" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="P34" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="Q34" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="R34" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="S34" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="T34" t="n">
-        <v>302.0652037672054</v>
+        <v>157.8606043508873</v>
       </c>
       <c r="U34" t="n">
-        <v>302.0652037672054</v>
+        <v>157.8606043508873</v>
       </c>
       <c r="V34" t="n">
-        <v>302.0652037672054</v>
+        <v>157.8606043508873</v>
       </c>
       <c r="W34" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="X34" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Y34" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
     </row>
     <row r="35">
@@ -6943,25 +6943,25 @@
         <v>142.64</v>
       </c>
       <c r="J35" t="n">
-        <v>863.2933831381582</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="K35" t="n">
-        <v>2066.601436671956</v>
+        <v>1243.655479385524</v>
       </c>
       <c r="L35" t="n">
-        <v>3585.987471442583</v>
+        <v>2763.041514156158</v>
       </c>
       <c r="M35" t="n">
-        <v>4096.836300171519</v>
+        <v>3027.752923593952</v>
       </c>
       <c r="N35" t="n">
-        <v>4878.516793044528</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O35" t="n">
-        <v>5831.559337066485</v>
+        <v>4854.512914955933</v>
       </c>
       <c r="P35" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q35" t="n">
         <v>7131.746396026259</v>
@@ -7010,7 +7010,7 @@
         <v>983.1588358758474</v>
       </c>
       <c r="F36" t="n">
-        <v>712.8191971507193</v>
+        <v>712.8191971507192</v>
       </c>
       <c r="G36" t="n">
         <v>458.6349890055611</v>
@@ -7049,7 +7049,7 @@
         <v>4552.141625978397</v>
       </c>
       <c r="S36" t="n">
-        <v>4192.939615341378</v>
+        <v>4194.655081094214</v>
       </c>
       <c r="T36" t="n">
         <v>3866.468516266156</v>
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>285.2048069580848</v>
+        <v>142.64</v>
       </c>
       <c r="C37" t="n">
-        <v>285.2048069580848</v>
+        <v>142.64</v>
       </c>
       <c r="D37" t="n">
-        <v>285.2048069580848</v>
+        <v>142.64</v>
       </c>
       <c r="E37" t="n">
-        <v>285.2048069580848</v>
+        <v>142.64</v>
       </c>
       <c r="F37" t="n">
-        <v>285.2048069580848</v>
+        <v>142.64</v>
       </c>
       <c r="G37" t="n">
-        <v>285.2048069580848</v>
+        <v>142.64</v>
       </c>
       <c r="H37" t="n">
         <v>142.64</v>
@@ -7104,49 +7104,49 @@
         <v>302.0652037672054</v>
       </c>
       <c r="K37" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="L37" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="M37" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="N37" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="O37" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="P37" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="Q37" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="R37" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="S37" t="n">
-        <v>302.0652037672054</v>
+        <v>271.0948588042588</v>
       </c>
       <c r="T37" t="n">
-        <v>285.2048069580848</v>
+        <v>271.0948588042588</v>
       </c>
       <c r="U37" t="n">
-        <v>285.2048069580848</v>
+        <v>271.0948588042588</v>
       </c>
       <c r="V37" t="n">
-        <v>285.2048069580848</v>
+        <v>142.64</v>
       </c>
       <c r="W37" t="n">
-        <v>285.2048069580848</v>
+        <v>142.64</v>
       </c>
       <c r="X37" t="n">
-        <v>285.2048069580848</v>
+        <v>142.64</v>
       </c>
       <c r="Y37" t="n">
-        <v>285.2048069580848</v>
+        <v>142.64</v>
       </c>
     </row>
     <row r="38">
@@ -7180,25 +7180,25 @@
         <v>142.64</v>
       </c>
       <c r="J38" t="n">
-        <v>533.9491130376557</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K38" t="n">
-        <v>1243.655479385524</v>
+        <v>2066.601436671956</v>
       </c>
       <c r="L38" t="n">
-        <v>2150.684973955147</v>
+        <v>2973.630931241578</v>
       </c>
       <c r="M38" t="n">
-        <v>2661.533802684082</v>
+        <v>3383.683832793175</v>
       </c>
       <c r="N38" t="n">
-        <v>3274.754122458845</v>
+        <v>4689.293984226237</v>
       </c>
       <c r="O38" t="n">
-        <v>4881.600750651655</v>
+        <v>5273.552677518746</v>
       </c>
       <c r="P38" t="n">
-        <v>6301.195374106501</v>
+        <v>6693.147300973592</v>
       </c>
       <c r="Q38" t="n">
         <v>7131.746396026259</v>
@@ -7253,7 +7253,7 @@
         <v>456.9195232527248</v>
       </c>
       <c r="H39" t="n">
-        <v>214.5823092088841</v>
+        <v>216.2977749617204</v>
       </c>
       <c r="I39" t="n">
         <v>142.64</v>
@@ -7341,40 +7341,40 @@
         <v>302.0652037672054</v>
       </c>
       <c r="K40" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="L40" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="M40" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="N40" t="n">
-        <v>142.64</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="O40" t="n">
-        <v>142.64</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="P40" t="n">
-        <v>142.64</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="Q40" t="n">
-        <v>142.64</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="R40" t="n">
-        <v>142.64</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="S40" t="n">
-        <v>142.64</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="T40" t="n">
-        <v>142.64</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="U40" t="n">
-        <v>142.64</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="V40" t="n">
-        <v>142.64</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="W40" t="n">
         <v>142.64</v>
@@ -7417,25 +7417,25 @@
         <v>142.64</v>
       </c>
       <c r="J41" t="n">
-        <v>533.9491130376557</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K41" t="n">
-        <v>1243.655479385524</v>
+        <v>2066.601436671956</v>
       </c>
       <c r="L41" t="n">
-        <v>2150.684973955147</v>
+        <v>2613.459478134674</v>
       </c>
       <c r="M41" t="n">
-        <v>2661.533802684082</v>
+        <v>3805.672946310853</v>
       </c>
       <c r="N41" t="n">
-        <v>3967.143954117137</v>
+        <v>3805.672946310853</v>
       </c>
       <c r="O41" t="n">
-        <v>5573.990582309947</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P41" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q41" t="n">
         <v>7131.746396026259</v>
@@ -7472,25 +7472,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1827.310044527499</v>
+        <v>1825.594578774662</v>
       </c>
       <c r="C42" t="n">
-        <v>1535.289930946166</v>
+        <v>1533.57446519333</v>
       </c>
       <c r="D42" t="n">
-        <v>1256.56499468586</v>
+        <v>1254.849528933024</v>
       </c>
       <c r="E42" t="n">
-        <v>983.1588358758474</v>
+        <v>981.4433701230112</v>
       </c>
       <c r="F42" t="n">
-        <v>712.8191971507192</v>
+        <v>711.1037313978829</v>
       </c>
       <c r="G42" t="n">
-        <v>458.6349890055611</v>
+        <v>456.9195232527247</v>
       </c>
       <c r="H42" t="n">
-        <v>216.2977749617204</v>
+        <v>214.582309208884</v>
       </c>
       <c r="I42" t="n">
         <v>142.64</v>
@@ -7520,28 +7520,28 @@
         <v>4900.69244085349</v>
       </c>
       <c r="R42" t="n">
-        <v>4553.857091731234</v>
+        <v>4552.141625978397</v>
       </c>
       <c r="S42" t="n">
-        <v>4194.655081094214</v>
+        <v>4192.939615341378</v>
       </c>
       <c r="T42" t="n">
-        <v>3866.468516266156</v>
+        <v>3864.75305051332</v>
       </c>
       <c r="U42" t="n">
-        <v>3535.082265698405</v>
+        <v>3533.366799945568</v>
       </c>
       <c r="V42" t="n">
-        <v>3189.111894797879</v>
+        <v>3187.396429045043</v>
       </c>
       <c r="W42" t="n">
-        <v>2825.098619131386</v>
+        <v>2823.38315337855</v>
       </c>
       <c r="X42" t="n">
-        <v>2473.722114641096</v>
+        <v>2472.006648888259</v>
       </c>
       <c r="Y42" t="n">
-        <v>2143.023738109647</v>
+        <v>2141.30827235681</v>
       </c>
     </row>
     <row r="43">
@@ -7578,40 +7578,40 @@
         <v>302.0652037672054</v>
       </c>
       <c r="K43" t="n">
-        <v>302.0652037672054</v>
+        <v>289.6911815471403</v>
       </c>
       <c r="L43" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="M43" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="N43" t="n">
-        <v>302.0652037672054</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="O43" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="P43" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Q43" t="n">
-        <v>298.5721311502118</v>
+        <v>142.64</v>
       </c>
       <c r="R43" t="n">
-        <v>298.5721311502118</v>
+        <v>142.64</v>
       </c>
       <c r="S43" t="n">
-        <v>298.5721311502118</v>
+        <v>142.64</v>
       </c>
       <c r="T43" t="n">
-        <v>298.5721311502118</v>
+        <v>142.64</v>
       </c>
       <c r="U43" t="n">
-        <v>298.5721311502118</v>
+        <v>142.64</v>
       </c>
       <c r="V43" t="n">
-        <v>298.5721311502118</v>
+        <v>142.64</v>
       </c>
       <c r="W43" t="n">
         <v>142.64</v>
@@ -7654,25 +7654,25 @@
         <v>142.64</v>
       </c>
       <c r="J44" t="n">
-        <v>863.2933831381582</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="K44" t="n">
-        <v>2066.601436671956</v>
+        <v>1737.257166571454</v>
       </c>
       <c r="L44" t="n">
-        <v>3585.987471442583</v>
+        <v>2349.613706772466</v>
       </c>
       <c r="M44" t="n">
-        <v>4096.836300171519</v>
+        <v>3541.827174948645</v>
       </c>
       <c r="N44" t="n">
-        <v>4710.056619946282</v>
+        <v>4270.254221663423</v>
       </c>
       <c r="O44" t="n">
-        <v>5663.099163968238</v>
+        <v>4854.512914955933</v>
       </c>
       <c r="P44" t="n">
-        <v>6524.687127875345</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q44" t="n">
         <v>7131.746396026259</v>
@@ -7709,22 +7709,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1149.36335395215</v>
+        <v>1180.432298718322</v>
       </c>
       <c r="C45" t="n">
-        <v>784.6159676435443</v>
+        <v>815.6849124097164</v>
       </c>
       <c r="D45" t="n">
-        <v>784.6159676435443</v>
+        <v>815.6849124097164</v>
       </c>
       <c r="E45" t="n">
-        <v>784.6159676435443</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="F45" t="n">
-        <v>784.6159676435443</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="G45" t="n">
-        <v>457.7044867711135</v>
+        <v>142.64</v>
       </c>
       <c r="H45" t="n">
         <v>142.64</v>
@@ -7757,28 +7757,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R45" t="n">
-        <v>4330.45244085349</v>
+        <v>4100.356561430818</v>
       </c>
       <c r="S45" t="n">
-        <v>3898.523157489198</v>
+        <v>3668.427278066526</v>
       </c>
       <c r="T45" t="n">
-        <v>3624.885462054444</v>
+        <v>3267.513440511195</v>
       </c>
       <c r="U45" t="n">
-        <v>3220.77193875942</v>
+        <v>2863.399917216171</v>
       </c>
       <c r="V45" t="n">
-        <v>2802.074295131622</v>
+        <v>2444.702273588373</v>
       </c>
       <c r="W45" t="n">
-        <v>2365.333746737856</v>
+        <v>2007.961725194607</v>
       </c>
       <c r="X45" t="n">
-        <v>1941.229969520292</v>
+        <v>1583.857947977043</v>
       </c>
       <c r="Y45" t="n">
-        <v>1537.804320261571</v>
+        <v>1180.432298718322</v>
       </c>
     </row>
     <row r="46">
@@ -7788,7 +7788,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="C46" t="n">
         <v>142.64</v>
@@ -7818,46 +7818,46 @@
         <v>230.7852037672054</v>
       </c>
       <c r="L46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="M46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="N46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="O46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="P46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Q46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="R46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="S46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="T46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="U46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="V46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="W46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="X46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Y46" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
     </row>
   </sheetData>
@@ -7996,10 +7996,10 @@
         <v>1060.271045550332</v>
       </c>
       <c r="N2" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1032.917105959907</v>
+        <v>179.9500636752612</v>
       </c>
       <c r="P2" t="n">
         <v>870.5779326741233</v>
@@ -8227,13 +8227,13 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>1060.271045550332</v>
       </c>
       <c r="N5" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>1032.917105959907</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K8" t="n">
         <v>716.8751175230994</v>
@@ -8467,7 +8467,7 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>1096.663422488788</v>
@@ -8695,10 +8695,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>511.5208918890485</v>
       </c>
       <c r="L11" t="n">
         <v>916.1914086561842</v>
@@ -8710,10 +8710,10 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O11" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>615.8520732695737</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J14" t="n">
         <v>430.3047365861567</v>
@@ -9178,7 +9178,7 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M17" t="n">
-        <v>1060.271045550332</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N17" t="n">
         <v>1096.663422488788</v>
@@ -9190,7 +9190,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
-        <v>615.8520732695737</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R17" t="n">
         <v>294.54111633436</v>
@@ -9421,10 +9421,10 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O20" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>615.8520732695737</v>
@@ -9646,7 +9646,7 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K23" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>916.1914086561842</v>
@@ -9880,7 +9880,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>430.3047365861567</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K26" t="n">
         <v>716.8751175230994</v>
@@ -9892,7 +9892,7 @@
         <v>1060.271045550332</v>
       </c>
       <c r="N26" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>1032.917105959907</v>
@@ -10117,7 +10117,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K29" t="n">
         <v>716.8751175230994</v>
@@ -10126,16 +10126,16 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M29" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1096.663422488788</v>
       </c>
       <c r="O29" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>870.5779326741233</v>
+        <v>97.94421075474349</v>
       </c>
       <c r="Q29" t="n">
         <v>615.8520732695737</v>
@@ -10354,7 +10354,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>716.8751175230994</v>
@@ -10366,10 +10366,10 @@
         <v>1060.271045550332</v>
       </c>
       <c r="N32" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>870.5779326741233</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J35" t="n">
         <v>430.3047365861567</v>
@@ -10600,10 +10600,10 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M35" t="n">
-        <v>1060.271045550332</v>
+        <v>123.4002791479233</v>
       </c>
       <c r="N35" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>1032.917105959907</v>
@@ -10837,13 +10837,13 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M38" t="n">
-        <v>1060.271045550332</v>
+        <v>270.2098671416631</v>
       </c>
       <c r="N38" t="n">
         <v>1096.663422488788</v>
       </c>
       <c r="O38" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>870.5779326741233</v>
@@ -11071,13 +11071,13 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1060.271045550332</v>
       </c>
       <c r="N41" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>1032.917105959907</v>
@@ -11308,7 +11308,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1060.271045550332</v>
@@ -11317,7 +11317,7 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O44" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>870.5779326741233</v>
@@ -23351,19 +23351,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>165.2433148799217</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H12" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>417.0653067263415</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>427.609990530649</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>396.904699179778</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>400.0723880620735</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>416.7255747228116</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23451,7 +23451,7 @@
         <v>84.25028199786442</v>
       </c>
       <c r="L13" t="n">
-        <v>162.1517265184349</v>
+        <v>74.88797478890153</v>
       </c>
       <c r="M13" t="n">
         <v>245.0262835336975</v>
@@ -23481,7 +23481,7 @@
         <v>150.8624896351137</v>
       </c>
       <c r="V13" t="n">
-        <v>111.9065584866828</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
         <v>226.3728098387097</v>
@@ -23579,7 +23579,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23588,19 +23588,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,25 +23630,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>255.4501663563067</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>400.0723880620735</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>106.6055830901244</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="16">
@@ -23685,10 +23685,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>84.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>162.1517265184349</v>
+        <v>159.138256786766</v>
       </c>
       <c r="M16" t="n">
         <v>245.0262835336975</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>139.1090581091763</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23825,16 +23825,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>144.9211972121032</v>
@@ -23867,7 +23867,7 @@
         <v>417.0653067263415</v>
       </c>
       <c r="S18" t="n">
-        <v>427.609990530649</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23879,10 +23879,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>93.0832086591052</v>
+        <v>393.7145704895628</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C19" t="n">
-        <v>185.4614949185113</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D19" t="n">
         <v>285.5362180555555</v>
@@ -23922,10 +23922,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>84.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>162.1517265184349</v>
+        <v>159.138256786766</v>
       </c>
       <c r="M19" t="n">
         <v>245.0262835336975</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>339.6362423378769</v>
@@ -24074,7 +24074,7 @@
         <v>311.9138419034023</v>
       </c>
       <c r="I21" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>315.4334702596732</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>255.4501663563066</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>243.2856761202186</v>
       </c>
       <c r="H22" t="n">
-        <v>125.8754071589705</v>
+        <v>213.1391588885039</v>
       </c>
       <c r="I22" t="n">
         <v>123.759685128315</v>
@@ -24165,7 +24165,7 @@
         <v>162.1517265184349</v>
       </c>
       <c r="M22" t="n">
-        <v>245.0262835336975</v>
+        <v>157.7625318041642</v>
       </c>
       <c r="N22" t="n">
         <v>302.1330260913569</v>
@@ -24296,19 +24296,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>296.2662737163857</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>77.77537247561833</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I24" t="n">
         <v>144.9211972121032</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>417.0653067263415</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>427.609990530649</v>
@@ -24396,10 +24396,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>84.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>162.1517265184349</v>
+        <v>159.138256786766</v>
       </c>
       <c r="M25" t="n">
         <v>245.0262835336975</v>
@@ -24432,7 +24432,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>139.1090581091763</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X25" t="n">
         <v>247.4436454301076</v>
@@ -24536,16 +24536,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>323.6423660637066</v>
       </c>
       <c r="H27" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>144.9211972121032</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24590,13 +24590,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>255.4501663563071</v>
+        <v>422.6709645227149</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="28">
@@ -24636,7 +24636,7 @@
         <v>84.25028199786442</v>
       </c>
       <c r="L28" t="n">
-        <v>162.1517265184349</v>
+        <v>74.88797478890153</v>
       </c>
       <c r="M28" t="n">
         <v>245.0262835336975</v>
@@ -24666,7 +24666,7 @@
         <v>150.8624896351137</v>
       </c>
       <c r="V28" t="n">
-        <v>111.9065584866828</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.698311095307957</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.698311095307986</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24864,16 +24864,16 @@
         <v>141.1391588885039</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>51.75968512831497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>12.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.15172651843488</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>173.0262835336975</v>
@@ -24900,10 +24900,10 @@
         <v>130.5122714242905</v>
       </c>
       <c r="U31" t="n">
-        <v>78.86248963511369</v>
+        <v>23.43354642187965</v>
       </c>
       <c r="V31" t="n">
-        <v>21.09904361499784</v>
+        <v>127.1703102162162</v>
       </c>
       <c r="W31" t="n">
         <v>154.3728098387097</v>
@@ -25001,7 +25001,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.698311095307872</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.698311095308</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25098,16 +25098,16 @@
         <v>171.2856761202186</v>
       </c>
       <c r="H34" t="n">
-        <v>35.0678922872855</v>
+        <v>141.1391588885039</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>51.75968512831497</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>12.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>90.15172651843488</v>
@@ -25134,7 +25134,7 @@
         <v>259.7329059323636</v>
       </c>
       <c r="T34" t="n">
-        <v>130.5122714242905</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>78.86248963511369</v>
@@ -25143,7 +25143,7 @@
         <v>127.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>154.3728098387097</v>
+        <v>139.3044115313313</v>
       </c>
       <c r="X34" t="n">
         <v>175.4436454301076</v>
@@ -25289,10 +25289,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.698311095307986</v>
       </c>
       <c r="T36" t="n">
-        <v>1.698311095307872</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>171.2856761202186</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>141.1391588885039</v>
       </c>
       <c r="I37" t="n">
         <v>51.75968512831497</v>
@@ -25344,7 +25344,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>90.15172651843488</v>
@@ -25368,16 +25368,16 @@
         <v>575.5472099483642</v>
       </c>
       <c r="S37" t="n">
-        <v>259.7329059323636</v>
+        <v>241.3225464169109</v>
       </c>
       <c r="T37" t="n">
-        <v>113.8204785832611</v>
+        <v>130.5122714242905</v>
       </c>
       <c r="U37" t="n">
-        <v>78.86248963511368</v>
+        <v>78.86248963511369</v>
       </c>
       <c r="V37" t="n">
-        <v>127.1703102162162</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>154.3728098387097</v>
@@ -25493,10 +25493,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.698311095307986</v>
       </c>
       <c r="I39" t="n">
-        <v>1.698311095308</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25581,16 +25581,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.15172651843488</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>173.0262835336975</v>
       </c>
       <c r="N40" t="n">
-        <v>72.30207436182357</v>
+        <v>230.1330260913569</v>
       </c>
       <c r="O40" t="n">
         <v>319.9324493249165</v>
@@ -25617,7 +25617,7 @@
         <v>127.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>154.3728098387097</v>
+        <v>98.94386662547565</v>
       </c>
       <c r="X40" t="n">
         <v>175.4436454301076</v>
@@ -25733,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.698311095308071</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.698311095308043</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25818,10 +25818,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.15172651843488</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>173.0262835336975</v>
@@ -25830,13 +25830,13 @@
         <v>230.1330260913569</v>
       </c>
       <c r="O43" t="n">
-        <v>319.9324493249165</v>
+        <v>264.5035061116825</v>
       </c>
       <c r="P43" t="n">
         <v>402.8019956889333</v>
       </c>
       <c r="Q43" t="n">
-        <v>503.1561245347743</v>
+        <v>506.614266425598</v>
       </c>
       <c r="R43" t="n">
         <v>575.5472099483642</v>
@@ -25848,13 +25848,13 @@
         <v>130.5122714242905</v>
       </c>
       <c r="U43" t="n">
-        <v>78.86248963511369</v>
+        <v>78.86248963511368</v>
       </c>
       <c r="V43" t="n">
         <v>127.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>154.3728098387097</v>
       </c>
       <c r="X43" t="n">
         <v>175.4436454301076</v>
@@ -25949,7 +25949,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25958,7 +25958,7 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E45" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>339.6362423378769</v>
@@ -25967,7 +25967,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I45" t="n">
         <v>144.9211972121032</v>
@@ -25997,13 +25997,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>417.0653067263415</v>
+        <v>189.2703860978965</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>126.0033806993717</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C46" t="n">
-        <v>185.4614949185113</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D46" t="n">
         <v>285.5362180555555</v>
@@ -26058,7 +26058,7 @@
         <v>84.25028199786442</v>
       </c>
       <c r="L46" t="n">
-        <v>162.1517265184349</v>
+        <v>74.88797478890153</v>
       </c>
       <c r="M46" t="n">
         <v>245.0262835336975</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15227.92240399552</v>
+        <v>1290861.46634091</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30455.84480799104</v>
+        <v>2581722.932681818</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45683.76721198655</v>
+        <v>3872584.39902273</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>64077.63304020518</v>
+        <v>4930699.682917373</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>82471.49886842382</v>
+        <v>5988814.966812018</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100865.3646966425</v>
+        <v>7046930.250706653</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119259.2305248611</v>
+        <v>8105045.534601285</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137653.0963530797</v>
+        <v>9163160.81849592</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>156046.9621812983</v>
+        <v>10221276.10239055</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173294.8350415169</v>
+        <v>11396465.66350119</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>190542.7079017355</v>
+        <v>12571655.22461182</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>207790.5807619542</v>
+        <v>13746844.78572245</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>225038.453622173</v>
+        <v>14922034.3468331</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>242286.3264823919</v>
+        <v>16097223.90794375</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>260680.1923106108</v>
+        <v>17155339.1918384</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>913048.3542411316</v>
+      </c>
+      <c r="C2" t="n">
+        <v>913048.3542411313</v>
+      </c>
+      <c r="D2" t="n">
         <v>913048.3542411315</v>
       </c>
-      <c r="C2" t="n">
-        <v>913048.3542411315</v>
-      </c>
-      <c r="D2" t="n">
-        <v>913048.3542411311</v>
-      </c>
       <c r="E2" t="n">
+        <v>748423.0056815768</v>
+      </c>
+      <c r="F2" t="n">
         <v>748423.0056815771</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>748423.0056815773</v>
+      </c>
+      <c r="H2" t="n">
         <v>748423.005681577</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>748423.0056815769</v>
       </c>
-      <c r="H2" t="n">
-        <v>748423.0056815773</v>
-      </c>
-      <c r="I2" t="n">
-        <v>748423.0056815773</v>
-      </c>
       <c r="J2" t="n">
-        <v>748423.0056815773</v>
+        <v>748423.005681577</v>
       </c>
       <c r="K2" t="n">
-        <v>831231.6407855778</v>
+        <v>831231.6407855783</v>
       </c>
       <c r="L2" t="n">
-        <v>831231.6407855777</v>
+        <v>831231.6407855786</v>
       </c>
       <c r="M2" t="n">
-        <v>831231.6407855772</v>
+        <v>831231.6407855785</v>
       </c>
       <c r="N2" t="n">
-        <v>831231.6407855778</v>
+        <v>831231.6407855784</v>
       </c>
       <c r="O2" t="n">
-        <v>831231.6407855776</v>
+        <v>831231.6407855769</v>
       </c>
       <c r="P2" t="n">
-        <v>748423.0056815771</v>
+        <v>748423.005681577</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131341.2704566748</v>
+        <v>131341.2704566749</v>
       </c>
       <c r="C4" t="n">
         <v>130819.0372304335</v>
@@ -26453,7 +26453,7 @@
         <v>64506.21516225203</v>
       </c>
       <c r="L4" t="n">
-        <v>64239.2499666958</v>
+        <v>64239.24996669581</v>
       </c>
       <c r="M4" t="n">
         <v>63971.90320553019</v>
@@ -26462,7 +26462,7 @@
         <v>63704.17204417787</v>
       </c>
       <c r="O4" t="n">
-        <v>63436.05360979277</v>
+        <v>63436.05360979278</v>
       </c>
       <c r="P4" t="n">
         <v>1115.16909319135</v>
@@ -26527,49 +26527,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-959822.9162155434</v>
+        <v>-959822.9162155433</v>
       </c>
       <c r="C6" t="n">
         <v>618940.3170106979</v>
       </c>
       <c r="D6" t="n">
-        <v>619463.2586789059</v>
+        <v>619463.2586789061</v>
       </c>
       <c r="E6" t="n">
+        <v>617646.4365883855</v>
+      </c>
+      <c r="F6" t="n">
         <v>617646.4365883858</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>617646.436588386</v>
+      </c>
+      <c r="H6" t="n">
         <v>617646.4365883857</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>617646.4365883856</v>
       </c>
-      <c r="H6" t="n">
-        <v>617646.436588386</v>
-      </c>
-      <c r="I6" t="n">
-        <v>617646.436588386</v>
-      </c>
       <c r="J6" t="n">
-        <v>-9969.563411614043</v>
+        <v>-9969.563411614276</v>
       </c>
       <c r="K6" t="n">
-        <v>573411.0576233258</v>
+        <v>573411.0576233263</v>
       </c>
       <c r="L6" t="n">
-        <v>631278.0228188819</v>
+        <v>631278.0228188828</v>
       </c>
       <c r="M6" t="n">
-        <v>631545.3695800471</v>
+        <v>631545.3695800484</v>
       </c>
       <c r="N6" t="n">
-        <v>631813.1007413999</v>
+        <v>631813.1007414006</v>
       </c>
       <c r="O6" t="n">
-        <v>632081.2191757848</v>
+        <v>632081.2191757842</v>
       </c>
       <c r="P6" t="n">
-        <v>617646.4365883858</v>
+        <v>617646.4365883857</v>
       </c>
     </row>
   </sheetData>
@@ -27037,31 +27037,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>72</v>
@@ -27144,22 +27144,22 @@
         <v>1783</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.247606128590007</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>347.9376868977026</v>
@@ -27599,16 +27599,16 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F3" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>323.6423660637066</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27638,7 +27638,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>247.148721796481</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27687,7 +27687,7 @@
         <v>213.1391588885039</v>
       </c>
       <c r="I4" t="n">
-        <v>123.759685128315</v>
+        <v>284.9509444694319</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27696,16 +27696,16 @@
         <v>84.25028199786442</v>
       </c>
       <c r="L4" t="n">
+        <v>162.1517265184349</v>
+      </c>
+      <c r="M4" t="n">
         <v>400</v>
       </c>
-      <c r="M4" t="n">
-        <v>245.0262835336975</v>
-      </c>
       <c r="N4" t="n">
-        <v>302.1330260913569</v>
+        <v>400</v>
       </c>
       <c r="O4" t="n">
-        <v>391.9324493249165</v>
+        <v>400</v>
       </c>
       <c r="P4" t="n">
         <v>400</v>
@@ -27726,7 +27726,7 @@
         <v>150.8624896351137</v>
       </c>
       <c r="V4" t="n">
-        <v>383.4215371257972</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W4" t="n">
         <v>226.3728098387097</v>
@@ -27827,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>177.2672007044424</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27872,13 +27872,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>137.7585059160953</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27893,7 +27893,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="7">
@@ -27903,7 +27903,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>400</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C7" t="n">
         <v>272.7252466480447</v>
@@ -27933,16 +27933,16 @@
         <v>84.25028199786442</v>
       </c>
       <c r="L7" t="n">
-        <v>162.1517265184349</v>
+        <v>323.3429858595517</v>
       </c>
       <c r="M7" t="n">
-        <v>245.0262835336975</v>
+        <v>400</v>
       </c>
       <c r="N7" t="n">
-        <v>302.1330260913569</v>
+        <v>400</v>
       </c>
       <c r="O7" t="n">
-        <v>391.9324493249165</v>
+        <v>400</v>
       </c>
       <c r="P7" t="n">
         <v>400</v>
@@ -27960,13 +27960,13 @@
         <v>202.5122714242905</v>
       </c>
       <c r="U7" t="n">
-        <v>286.448600202048</v>
+        <v>150.8624896351137</v>
       </c>
       <c r="V7" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W7" t="n">
-        <v>400</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X7" t="n">
         <v>247.4436454301076</v>
@@ -28064,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I9" t="n">
         <v>144.9211972121032</v>
@@ -28109,16 +28109,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>396.904699179778</v>
+        <v>237.0223511327005</v>
       </c>
       <c r="U9" t="n">
-        <v>376.4100147034261</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D10" t="n">
-        <v>400</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E10" t="n">
         <v>280.9809048369565</v>
@@ -28155,7 +28155,7 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G10" t="n">
-        <v>400</v>
+        <v>243.2856761202186</v>
       </c>
       <c r="H10" t="n">
         <v>213.1391588885039</v>
@@ -28170,16 +28170,16 @@
         <v>84.25028199786442</v>
       </c>
       <c r="L10" t="n">
-        <v>162.1517265184349</v>
+        <v>323.3429858595517</v>
       </c>
       <c r="M10" t="n">
-        <v>395.9476781006176</v>
+        <v>400</v>
       </c>
       <c r="N10" t="n">
-        <v>302.1330260913569</v>
+        <v>400</v>
       </c>
       <c r="O10" t="n">
-        <v>391.9324493249165</v>
+        <v>400</v>
       </c>
       <c r="P10" t="n">
         <v>400</v>
@@ -31180,28 +31180,28 @@
         <v>151.1103015075377</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K2" t="n">
         <v>498.5875628140704</v>
       </c>
       <c r="L2" t="n">
-        <v>113.1020729150382</v>
+        <v>618.5419597990024</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N2" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O2" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P2" t="n">
         <v>563.6430904522613</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R2" t="n">
         <v>246.2144472361809</v>
@@ -31423,22 +31423,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>618.541959798995</v>
+        <v>618.5419597990024</v>
       </c>
       <c r="M5" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P5" t="n">
-        <v>313.1732231691343</v>
+        <v>542.9637327060358</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R5" t="n">
         <v>246.2144472361809</v>
@@ -31651,31 +31651,31 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I8" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J8" t="n">
-        <v>332.6709798994975</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>618.5419597990024</v>
       </c>
       <c r="M8" t="n">
-        <v>688.2471105527638</v>
+        <v>598.5737126283495</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O8" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>368.9407738256431</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>246.2144472361809</v>
@@ -31891,25 +31891,25 @@
         <v>150.0811596826846</v>
       </c>
       <c r="J11" t="n">
-        <v>332.6709798994975</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>498.5875628140704</v>
       </c>
       <c r="L11" t="n">
-        <v>618.541959798995</v>
+        <v>618.5419597990024</v>
       </c>
       <c r="M11" t="n">
-        <v>600.4665275944861</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>563.6430904522613</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -32131,10 +32131,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>498.5875628140704</v>
+        <v>437.7772432696286</v>
       </c>
       <c r="L14" t="n">
-        <v>133.4300109925225</v>
+        <v>618.5419597990024</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -32149,7 +32149,7 @@
         <v>563.6430904522613</v>
       </c>
       <c r="Q14" t="n">
-        <v>423.2724874371859</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>246.2144472361809</v>
@@ -32368,25 +32368,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L17" t="n">
-        <v>618.541959798995</v>
+        <v>156.9781129337953</v>
       </c>
       <c r="M17" t="n">
-        <v>578.1478462847114</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>563.6430904522613</v>
       </c>
       <c r="Q17" t="n">
-        <v>423.2724874371859</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>246.2144472361809</v>
@@ -32605,25 +32605,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L20" t="n">
-        <v>508.4426955309427</v>
+        <v>618.5419597990024</v>
       </c>
       <c r="M20" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>455.0539401951014</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>563.6430904522613</v>
       </c>
       <c r="Q20" t="n">
-        <v>423.2724874371859</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>246.2144472361809</v>
@@ -32839,22 +32839,22 @@
         <v>150.0811596826846</v>
       </c>
       <c r="J23" t="n">
-        <v>332.6709798994975</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>498.5875628140704</v>
       </c>
       <c r="L23" t="n">
-        <v>128.2955849781792</v>
+        <v>618.5419597990024</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>660.4081658291458</v>
+        <v>531.4607778781478</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -33076,28 +33076,28 @@
         <v>150.0811596826846</v>
       </c>
       <c r="J26" t="n">
-        <v>332.6709798994975</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>498.5875628140704</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>89.32008246561554</v>
+        <v>618.5419597990024</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>368.7727847633092</v>
       </c>
       <c r="N26" t="n">
-        <v>699.3836683417086</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>563.6430904522613</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R26" t="n">
         <v>246.2144472361809</v>
@@ -33310,28 +33310,28 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I29" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J29" t="n">
-        <v>35.04300624509033</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L29" t="n">
-        <v>204.3207575303004</v>
+        <v>618.5419597990024</v>
       </c>
       <c r="M29" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N29" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>563.6430904522613</v>
       </c>
       <c r="Q29" t="n">
         <v>423.2724874371859</v>
@@ -33547,31 +33547,31 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I32" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L32" t="n">
-        <v>271.3070171389836</v>
+        <v>312.6053514042369</v>
       </c>
       <c r="M32" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O32" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>563.6430904522613</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R32" t="n">
         <v>246.2144472361809</v>
@@ -33784,31 +33784,31 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I35" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J35" t="n">
-        <v>332.6709798994975</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>498.5875628140704</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>618.541959798995</v>
+        <v>618.5419597990024</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N35" t="n">
-        <v>170.161791008329</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>563.6430904522613</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R35" t="n">
         <v>246.2144472361809</v>
@@ -34024,28 +34024,28 @@
         <v>150.0811596826846</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O38" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P38" t="n">
         <v>563.6430904522613</v>
       </c>
       <c r="Q38" t="n">
-        <v>395.9110372394861</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>246.2144472361809</v>
@@ -34261,28 +34261,28 @@
         <v>150.0811596826846</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>552.3818600633513</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N41" t="n">
-        <v>699.3836683417086</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O41" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P41" t="n">
-        <v>260.170459350038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R41" t="n">
         <v>246.2144472361809</v>
@@ -34498,28 +34498,28 @@
         <v>150.0811596826846</v>
       </c>
       <c r="J44" t="n">
-        <v>332.6709798994975</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>498.5875628140704</v>
       </c>
       <c r="L44" t="n">
-        <v>618.541959798995</v>
+        <v>618.5419597990024</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>116.3704312525402</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>563.6430904522613</v>
       </c>
       <c r="Q44" t="n">
-        <v>170.1617910083302</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R44" t="n">
         <v>246.2144472361809</v>
@@ -34828,28 +34828,28 @@
         <v>1.029141824853099</v>
       </c>
       <c r="J2" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K2" t="n">
         <v>1215.46268033717</v>
       </c>
       <c r="L2" t="n">
-        <v>113.1020729150382</v>
+        <v>618.5419597990021</v>
       </c>
       <c r="M2" t="n">
-        <v>516.0089179080152</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N2" t="n">
-        <v>1318.798132760661</v>
+        <v>222.1347102718807</v>
       </c>
       <c r="O2" t="n">
-        <v>1623.07740221496</v>
+        <v>770.1103599303219</v>
       </c>
       <c r="P2" t="n">
         <v>1433.933963085703</v>
       </c>
       <c r="Q2" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34983,7 +34983,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>161.1912593411169</v>
       </c>
       <c r="J4" t="n">
         <v>89.03555936081352</v>
@@ -34992,16 +34992,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8482734815651</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>154.9737164663025</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>97.8669739086431</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>8.067550675083453</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35022,7 +35022,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2512269095809</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -35071,22 +35071,22 @@
         <v>716.8751175230996</v>
       </c>
       <c r="L5" t="n">
-        <v>1534.733368455179</v>
+        <v>618.5419597990024</v>
       </c>
       <c r="M5" t="n">
-        <v>1204.256028460779</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N5" t="n">
-        <v>619.4144644189528</v>
+        <v>222.1347102718807</v>
       </c>
       <c r="O5" t="n">
-        <v>962.6692363858147</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P5" t="n">
-        <v>1183.464095802576</v>
+        <v>1413.254605339478</v>
       </c>
       <c r="Q5" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35199,7 +35199,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.8861996629213</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -35229,16 +35229,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>161.1912593411169</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>154.9737164663025</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>97.8669739086431</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>8.067550675083453</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35256,13 +35256,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>135.5861105669343</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>173.6271901612903</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -35302,28 +35302,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>297.6279736544072</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230993</v>
+        <v>1215.46268033717</v>
       </c>
       <c r="L8" t="n">
-        <v>916.191408656184</v>
+        <v>1534.733368455186</v>
       </c>
       <c r="M8" t="n">
-        <v>1204.256028460779</v>
+        <v>54.31158498603224</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4144644189528</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O8" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P8" t="n">
         <v>870.2908726334418</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9701627677313</v>
+        <v>443.0293889420883</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35442,7 +35442,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>114.4637819444445</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -35451,7 +35451,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>156.7143238797814</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -35466,16 +35466,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>161.1912593411169</v>
       </c>
       <c r="M10" t="n">
-        <v>150.9213945669201</v>
+        <v>154.9737164663025</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>97.8669739086431</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.067550675083453</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35539,25 +35539,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>297.6279736544072</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K11" t="n">
-        <v>1215.46268033717</v>
+        <v>1010.108454703119</v>
       </c>
       <c r="L11" t="n">
-        <v>1534.733368455179</v>
+        <v>1534.733368455187</v>
       </c>
       <c r="M11" t="n">
-        <v>1116.475445502501</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N11" t="n">
-        <v>619.4144644189528</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O11" t="n">
-        <v>962.6692363858147</v>
+        <v>590.1602962550608</v>
       </c>
       <c r="P11" t="n">
-        <v>870.2908726334418</v>
+        <v>563.3560304115798</v>
       </c>
       <c r="Q11" t="n">
         <v>443.0293889420883</v>
@@ -35773,16 +35773,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.029141824853099</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>395.2617303410664</v>
       </c>
       <c r="K14" t="n">
-        <v>1215.46268033717</v>
+        <v>1154.652360792728</v>
       </c>
       <c r="L14" t="n">
-        <v>1049.621419648707</v>
+        <v>1534.733368455187</v>
       </c>
       <c r="M14" t="n">
         <v>516.0089179080152</v>
@@ -35797,7 +35797,7 @@
         <v>1433.933963085703</v>
       </c>
       <c r="Q14" t="n">
-        <v>866.3018763792742</v>
+        <v>443.0293889420883</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -36016,25 +36016,25 @@
         <v>395.2617303410664</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230996</v>
+        <v>1215.46268033717</v>
       </c>
       <c r="L17" t="n">
-        <v>1534.733368455179</v>
+        <v>1073.169521589979</v>
       </c>
       <c r="M17" t="n">
-        <v>1094.156764192727</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>619.4144644189528</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O17" t="n">
-        <v>962.6692363858147</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P17" t="n">
-        <v>870.2908726334418</v>
+        <v>1433.933963085703</v>
       </c>
       <c r="Q17" t="n">
-        <v>866.3018763792742</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36253,25 +36253,25 @@
         <v>395.2617303410664</v>
       </c>
       <c r="K20" t="n">
-        <v>716.8751175230996</v>
+        <v>1215.46268033717</v>
       </c>
       <c r="L20" t="n">
-        <v>1424.634104187127</v>
+        <v>1534.733368455186</v>
       </c>
       <c r="M20" t="n">
-        <v>1204.256028460779</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N20" t="n">
-        <v>619.4144644189528</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O20" t="n">
-        <v>962.6692363858147</v>
+        <v>384.8060706210089</v>
       </c>
       <c r="P20" t="n">
-        <v>870.2908726334418</v>
+        <v>563.3560304115798</v>
       </c>
       <c r="Q20" t="n">
-        <v>866.3018763792742</v>
+        <v>443.0293889420883</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36487,22 +36487,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>727.9327102405639</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K23" t="n">
-        <v>1215.46268033717</v>
+        <v>498.5875628140705</v>
       </c>
       <c r="L23" t="n">
-        <v>1044.486993634363</v>
+        <v>1534.733368455187</v>
       </c>
       <c r="M23" t="n">
-        <v>516.0089179080152</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N23" t="n">
         <v>619.4144644189528</v>
       </c>
       <c r="O23" t="n">
-        <v>1623.07740221496</v>
+        <v>1494.130014263962</v>
       </c>
       <c r="P23" t="n">
         <v>870.2908726334418</v>
@@ -36724,28 +36724,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>727.9327102405639</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1215.46268033717</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>1005.5114911218</v>
+        <v>1534.733368455187</v>
       </c>
       <c r="M26" t="n">
-        <v>516.0089179080152</v>
+        <v>884.7817026713244</v>
       </c>
       <c r="N26" t="n">
-        <v>1318.798132760661</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>962.6692363858147</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P26" t="n">
-        <v>870.2908726334418</v>
+        <v>1433.933963085703</v>
       </c>
       <c r="Q26" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36958,28 +36958,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.029141824853099</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>1215.46268033717</v>
       </c>
       <c r="L29" t="n">
-        <v>1120.512166186485</v>
+        <v>1534.733368455187</v>
       </c>
       <c r="M29" t="n">
-        <v>1204.256028460779</v>
+        <v>143.9849829104539</v>
       </c>
       <c r="N29" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O29" t="n">
-        <v>962.6692363858147</v>
+        <v>590.1602962550608</v>
       </c>
       <c r="P29" t="n">
-        <v>870.2908726334418</v>
+        <v>661.3002411663233</v>
       </c>
       <c r="Q29" t="n">
         <v>866.3018763792742</v>
@@ -37195,31 +37195,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.029141824853099</v>
       </c>
       <c r="J32" t="n">
-        <v>395.2617303410664</v>
+        <v>297.6279736544072</v>
       </c>
       <c r="K32" t="n">
-        <v>716.8751175230996</v>
+        <v>1215.46268033717</v>
       </c>
       <c r="L32" t="n">
-        <v>1187.498425795168</v>
+        <v>1228.796760060421</v>
       </c>
       <c r="M32" t="n">
-        <v>1204.256028460779</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4144644189528</v>
+        <v>222.1347102718807</v>
       </c>
       <c r="O32" t="n">
-        <v>1623.07740221496</v>
+        <v>590.1602962550608</v>
       </c>
       <c r="P32" t="n">
-        <v>870.2908726334418</v>
+        <v>1433.933963085703</v>
       </c>
       <c r="Q32" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37435,28 +37435,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>727.9327102405639</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K35" t="n">
-        <v>1215.46268033717</v>
+        <v>716.8751175230996</v>
       </c>
       <c r="L35" t="n">
-        <v>1534.733368455179</v>
+        <v>1534.733368455186</v>
       </c>
       <c r="M35" t="n">
-        <v>516.0089179080152</v>
+        <v>267.3852620583772</v>
       </c>
       <c r="N35" t="n">
-        <v>789.5762554272817</v>
+        <v>222.1347102718807</v>
       </c>
       <c r="O35" t="n">
-        <v>962.6692363858147</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P35" t="n">
-        <v>870.2908726334418</v>
+        <v>1433.933963085703</v>
       </c>
       <c r="Q35" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37672,28 +37672,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K38" t="n">
-        <v>716.8751175230996</v>
+        <v>1215.46268033717</v>
       </c>
       <c r="L38" t="n">
         <v>916.1914086561842</v>
       </c>
       <c r="M38" t="n">
-        <v>516.0089179080152</v>
+        <v>414.194850052117</v>
       </c>
       <c r="N38" t="n">
-        <v>619.4144644189528</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O38" t="n">
-        <v>1623.07740221496</v>
+        <v>590.1602962550608</v>
       </c>
       <c r="P38" t="n">
         <v>1433.933963085703</v>
       </c>
       <c r="Q38" t="n">
-        <v>838.9404261815744</v>
+        <v>443.0293889420883</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37909,28 +37909,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K41" t="n">
-        <v>716.8751175230996</v>
+        <v>1215.46268033717</v>
       </c>
       <c r="L41" t="n">
-        <v>916.1914086561842</v>
+        <v>552.3818600633513</v>
       </c>
       <c r="M41" t="n">
-        <v>516.0089179080152</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N41" t="n">
-        <v>1318.798132760661</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P41" t="n">
-        <v>1130.46133198348</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q41" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38146,28 +38146,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>727.9327102405639</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K44" t="n">
         <v>1215.46268033717</v>
       </c>
       <c r="L44" t="n">
-        <v>1534.733368455179</v>
+        <v>618.5419597990026</v>
       </c>
       <c r="M44" t="n">
-        <v>516.0089179080152</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N44" t="n">
-        <v>619.4144644189528</v>
+        <v>735.784895671493</v>
       </c>
       <c r="O44" t="n">
-        <v>962.6692363858147</v>
+        <v>590.1602962550608</v>
       </c>
       <c r="P44" t="n">
-        <v>870.2908726334418</v>
+        <v>1433.933963085703</v>
       </c>
       <c r="Q44" t="n">
-        <v>613.1911799504185</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
